--- a/QuaTrinhCongViec.xlsx
+++ b/QuaTrinhCongViec.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="180">
   <si>
     <t>PHẦN MỀM AUTO FILL DATA V1.0.0</t>
   </si>
@@ -756,12 +756,6 @@
     <t>1. Dữ liệu đầu vào nên để từ 15-20 dòng</t>
   </si>
   <si>
-    <t>Ưu tiên 15 dòng</t>
-  </si>
-  <si>
-    <t>Nhược điểm</t>
-  </si>
-  <si>
     <t>Khi thực hiện trên phần mềm, để tránh trường hợp nhập dữ liệu quá nhanh + đăng ký quá nhanh dẫn đến trường hợp server không nhận kết quả</t>
   </si>
   <si>
@@ -841,22 +835,16 @@
     <t>3. Nếu số lượng đầu vào quá nhiều việc xử lý sẽ tốn nhiều thời gian hơn</t>
   </si>
   <si>
-    <t>Khi gửi yêu cầu đăng kí, tùy tình trạng kết nối Internet nên quá trình gửi dữ liệu đăng kí có thể xử lý chậm hoặc nhanh</t>
-  </si>
-  <si>
-    <t>(Đường truyền Internet cao, tốc độ xử lý được nhanh hơn)</t>
-  </si>
-  <si>
-    <t>Form này dùng để xử lý nghiệp vụ, khi đang hoạt động. Không nên sử dụng</t>
-  </si>
-  <si>
     <t>An Giang</t>
+  </si>
+  <si>
+    <t>Form này dùng để xử lý nghiệp vụ. Khi đang hoạt động, không nên sử dụng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1103,6 +1091,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1127,6 +1116,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1136,25 +1131,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1165,6 +1153,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1338,7 +1329,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1373,7 +1364,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1582,48 +1573,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N114"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="M102" sqref="M102"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="24" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
@@ -1639,76 +1630,76 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="25" t="s">
+      <c r="C27" s="25"/>
+      <c r="D27" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="25" t="s">
+      <c r="C28" s="25"/>
+      <c r="D28" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="25" t="s">
+      <c r="C29" s="25"/>
+      <c r="D29" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25" t="s">
+      <c r="C30" s="25"/>
+      <c r="D30" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1719,11 +1710,11 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
       <c r="E35" s="3" t="s">
         <v>26</v>
       </c>
@@ -1737,11 +1728,11 @@
       <c r="M35" s="5"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
       <c r="E36" s="3" t="s">
         <v>27</v>
       </c>
@@ -1755,11 +1746,11 @@
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
       <c r="E37" s="3" t="s">
         <v>22</v>
       </c>
@@ -1773,11 +1764,11 @@
       <c r="M37" s="5"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
       <c r="E38" s="3" t="s">
         <v>21</v>
       </c>
@@ -1791,11 +1782,11 @@
       <c r="M38" s="5"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
       <c r="E39" s="3" t="s">
         <v>10</v>
       </c>
@@ -1809,11 +1800,11 @@
       <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
       <c r="E40" s="3" t="s">
         <v>20</v>
       </c>
@@ -1827,11 +1818,11 @@
       <c r="M40" s="5"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
       <c r="E41" s="3" t="s">
         <v>19</v>
       </c>
@@ -1866,72 +1857,72 @@
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="24"/>
-      <c r="D50" s="25" t="s">
+      <c r="C50" s="25"/>
+      <c r="D50" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="25"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="24"/>
-      <c r="D51" s="25" t="s">
+      <c r="C51" s="25"/>
+      <c r="D51" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="25" t="s">
+      <c r="C52" s="25"/>
+      <c r="D52" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B53" s="23"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="25"/>
-      <c r="L53" s="25"/>
-      <c r="M53" s="25"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
@@ -1942,76 +1933,76 @@
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B69" s="23" t="s">
+      <c r="B69" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C69" s="24"/>
-      <c r="D69" s="25" t="s">
+      <c r="C69" s="25"/>
+      <c r="D69" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="25"/>
-      <c r="L69" s="25"/>
-      <c r="M69" s="25"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="26"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B70" s="23" t="s">
+      <c r="B70" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C70" s="24"/>
-      <c r="D70" s="25" t="s">
+      <c r="C70" s="25"/>
+      <c r="D70" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="25"/>
-      <c r="K70" s="25"/>
-      <c r="L70" s="25"/>
-      <c r="M70" s="25"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="26"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C71" s="24"/>
-      <c r="D71" s="25" t="s">
+      <c r="C71" s="25"/>
+      <c r="D71" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="25"/>
-      <c r="L71" s="25"/>
-      <c r="M71" s="25"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="26"/>
+      <c r="M71" s="26"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B72" s="23" t="s">
+      <c r="B72" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C72" s="24"/>
-      <c r="D72" s="25" t="s">
+      <c r="C72" s="25"/>
+      <c r="D72" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="25"/>
-      <c r="L72" s="25"/>
-      <c r="M72" s="25"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="26"/>
+      <c r="M72" s="26"/>
     </row>
     <row r="76" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="18" t="s">
@@ -2025,12 +2016,12 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B102" s="40" t="s">
-        <v>182</v>
+      <c r="B102" s="23" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -2042,13 +2033,11 @@
       <c r="B105" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F105" s="19" t="s">
-        <v>166</v>
-      </c>
+      <c r="F105" s="19"/>
     </row>
     <row r="106" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C106" s="20"/>
       <c r="D106" s="20"/>
@@ -2065,43 +2054,28 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B107" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B109" s="22" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B110" s="21"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B113" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B114" s="40" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="6" t="s">
+      <c r="A114" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>170</v>
+      <c r="C114" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2149,40 +2123,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.25" customWidth="1"/>
+    <col min="2" max="2" width="26.75" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.25" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.28515625" customWidth="1"/>
-    <col min="23" max="23" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.25" customWidth="1"/>
+    <col min="23" max="23" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -2250,7 +2224,7 @@
         <v>66</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="W1" s="7" t="s">
         <v>67</v>
@@ -2336,7 +2310,7 @@
         <v>93</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="W2" s="7" t="s">
         <v>94</v>
@@ -2383,7 +2357,7 @@
         <v>106</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8">
@@ -2417,10 +2391,10 @@
         <v>2015</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="W3" s="8" t="s">
         <v>115</v>
@@ -2428,8 +2402,8 @@
       <c r="X3" s="8">
         <v>26485</v>
       </c>
-      <c r="Y3" s="8">
-        <v>2022</v>
+      <c r="Y3" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="Z3" s="8" t="s">
         <v>116</v>
@@ -2503,10 +2477,10 @@
         <v>2015</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="W4" s="8" t="s">
         <v>128</v>
@@ -2514,8 +2488,8 @@
       <c r="X4" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="Y4" s="8">
-        <v>2022</v>
+      <c r="Y4" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="Z4" s="8" t="s">
         <v>130</v>
@@ -2587,10 +2561,10 @@
         <v>2015</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="V5" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="W5" s="8" t="s">
         <v>115</v>
@@ -2598,8 +2572,8 @@
       <c r="X5" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="Y5" s="8">
-        <v>2022</v>
+      <c r="Y5" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="Z5" s="8" t="s">
         <v>143</v>
@@ -2612,10 +2586,10 @@
       </c>
     </row>
     <row r="7" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="37"/>
     </row>
     <row r="8" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
@@ -2627,17 +2601,17 @@
       <c r="C8" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36" t="s">
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
     </row>
     <row r="9" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
@@ -2647,15 +2621,15 @@
         <v>74</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
     </row>
     <row r="10" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
@@ -2667,17 +2641,17 @@
       <c r="C10" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="31" t="s">
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="33"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="36"/>
     </row>
     <row r="11" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
@@ -2687,17 +2661,17 @@
         <v>76</v>
       </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28" t="s">
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="31"/>
     </row>
     <row r="12" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
@@ -2707,17 +2681,17 @@
         <v>77</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27" t="s">
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
     </row>
     <row r="13" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
@@ -2727,15 +2701,15 @@
         <v>78</v>
       </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
     </row>
     <row r="14" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
@@ -2745,15 +2719,15 @@
         <v>79</v>
       </c>
       <c r="C14" s="12"/>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
     </row>
     <row r="15" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
@@ -2763,15 +2737,15 @@
         <v>80</v>
       </c>
       <c r="C15" s="12"/>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
     </row>
     <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
@@ -2781,17 +2755,17 @@
         <v>81</v>
       </c>
       <c r="C16" s="12"/>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="34" t="s">
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
@@ -2801,15 +2775,15 @@
         <v>82</v>
       </c>
       <c r="C17" s="12"/>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
@@ -2819,15 +2793,15 @@
         <v>83</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
@@ -2837,15 +2811,15 @@
         <v>84</v>
       </c>
       <c r="C19" s="12"/>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
@@ -2857,17 +2831,17 @@
       <c r="C20" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="31" t="s">
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="33"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="36"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
@@ -2879,17 +2853,17 @@
       <c r="C21" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="31" t="s">
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="33"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="36"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
@@ -2899,15 +2873,15 @@
         <v>87</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
@@ -2917,15 +2891,15 @@
         <v>88</v>
       </c>
       <c r="C23" s="12"/>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
@@ -2935,15 +2909,15 @@
         <v>89</v>
       </c>
       <c r="C24" s="12"/>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
@@ -2953,17 +2927,17 @@
         <v>90</v>
       </c>
       <c r="C25" s="12"/>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="28" t="s">
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="31"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
@@ -2973,15 +2947,15 @@
         <v>91</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
@@ -2991,15 +2965,15 @@
         <v>92</v>
       </c>
       <c r="C27" s="12"/>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
@@ -3009,33 +2983,33 @@
         <v>93</v>
       </c>
       <c r="C28" s="12"/>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>21</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C29" s="12"/>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
@@ -3045,17 +3019,17 @@
         <v>94</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="28" t="s">
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="31"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
@@ -3065,15 +3039,15 @@
         <v>95</v>
       </c>
       <c r="C31" s="12"/>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
@@ -3083,15 +3057,15 @@
         <v>96</v>
       </c>
       <c r="C32" s="12"/>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
@@ -3101,15 +3075,15 @@
         <v>97</v>
       </c>
       <c r="C33" s="12"/>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
@@ -3119,15 +3093,15 @@
         <v>98</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
@@ -3137,15 +3111,15 @@
         <v>99</v>
       </c>
       <c r="C35" s="12"/>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="57">
@@ -3184,28 +3158,28 @@
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="D31:F31"/>
     <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G21:J21"/>
     <mergeCell ref="G12:J12"/>
     <mergeCell ref="G13:J13"/>
     <mergeCell ref="G14:J14"/>
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="G21:J21"/>
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="G24:J24"/>
     <mergeCell ref="G25:J25"/>
     <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G35:J35"/>
     <mergeCell ref="G27:J27"/>
     <mergeCell ref="G28:J28"/>
     <mergeCell ref="G31:J31"/>
     <mergeCell ref="G32:J32"/>
     <mergeCell ref="G33:J33"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="G35:J35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O3" r:id="rId1"/>
